--- a/threshold.xlsx
+++ b/threshold.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="criticalHit" sheetId="1" r:id="rId1"/>
     <sheet name="directHit" sheetId="2" r:id="rId2"/>
-    <sheet name="ditermination" sheetId="3" r:id="rId3"/>
+    <sheet name="determination" sheetId="3" r:id="rId3"/>
     <sheet name="fortitude" sheetId="4" r:id="rId4"/>
     <sheet name="speed" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -163,30 +163,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b val="0"/>
@@ -10391,7 +10368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -10400,7 +10377,7 @@
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -12467,7 +12444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -13771,7 +13748,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3 B5 B7 B9 B11 B13 B15 B17 B19 B21 B23 B25 B27 B29 B31 B33 B35 B37 B39 B43 B47 B51 B55 B59 B63 B67 B71 B75 B79 B83 B87 B91 B95 B99 B103 B107 B111 B115 B119 B123 B127 B131 B135 B139 B143 B41 B45 B49 B53 B57 B61 B65 B69 B73 B77 B81 B85 B89 B93 B97 B101 B105 B109 B113 B117 B121 B125 B129 B133 B137 B141">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/threshold.xlsx
+++ b/threshold.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="criticalHit" sheetId="1" r:id="rId1"/>
     <sheet name="directHit" sheetId="2" r:id="rId2"/>
     <sheet name="determination" sheetId="3" r:id="rId3"/>
-    <sheet name="fortitude" sheetId="4" r:id="rId4"/>
-    <sheet name="speed" sheetId="5" r:id="rId5"/>
+    <sheet name="speed" sheetId="5" r:id="rId4"/>
+    <sheet name="fortitude" sheetId="4" r:id="rId5"/>
+    <sheet name="faith" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>暴击阈值</t>
   </si>
@@ -58,6 +59,12 @@
   <si>
     <t>gcd</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信仰</t>
+  </si>
+  <si>
+    <t>回蓝</t>
   </si>
 </sst>
 </file>
@@ -136,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,6 +165,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10368,7 +10378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -11697,750 +11707,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>380</v>
-      </c>
-      <c r="B2" s="2">
-        <f t="shared" ref="B2:B65" si="0">ROUNDDOWN(((A2-380)*0.1/3300),3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>413</v>
-      </c>
-      <c r="B3" s="2">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>446</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>479</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>512</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>545</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>578</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>611</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>644</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>677</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>710</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>743</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>776</v>
-      </c>
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>809</v>
-      </c>
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>842</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>875</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>908</v>
-      </c>
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>941</v>
-      </c>
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>974</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>1007</v>
-      </c>
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>1040</v>
-      </c>
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>1073</v>
-      </c>
-      <c r="B23" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>1106</v>
-      </c>
-      <c r="B24" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>1139</v>
-      </c>
-      <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>1172</v>
-      </c>
-      <c r="B26" s="2">
-        <f t="shared" si="0"/>
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>1205</v>
-      </c>
-      <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>1238</v>
-      </c>
-      <c r="B28" s="2">
-        <f t="shared" si="0"/>
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>1271</v>
-      </c>
-      <c r="B29" s="2">
-        <f t="shared" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>1304</v>
-      </c>
-      <c r="B30" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>1337</v>
-      </c>
-      <c r="B31" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>1370</v>
-      </c>
-      <c r="B32" s="2">
-        <f t="shared" si="0"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>1403</v>
-      </c>
-      <c r="B33" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>1436</v>
-      </c>
-      <c r="B34" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>1469</v>
-      </c>
-      <c r="B35" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>1502</v>
-      </c>
-      <c r="B36" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>1535</v>
-      </c>
-      <c r="B37" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>1568</v>
-      </c>
-      <c r="B38" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>1601</v>
-      </c>
-      <c r="B39" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>1634</v>
-      </c>
-      <c r="B40" s="2">
-        <f t="shared" si="0"/>
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>1667</v>
-      </c>
-      <c r="B41" s="2">
-        <f t="shared" si="0"/>
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>1700</v>
-      </c>
-      <c r="B42" s="2">
-        <f t="shared" si="0"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>1733</v>
-      </c>
-      <c r="B43" s="2">
-        <f t="shared" si="0"/>
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>1766</v>
-      </c>
-      <c r="B44" s="2">
-        <f t="shared" si="0"/>
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>1799</v>
-      </c>
-      <c r="B45" s="2">
-        <f t="shared" si="0"/>
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>1832</v>
-      </c>
-      <c r="B46" s="2">
-        <f t="shared" si="0"/>
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>1865</v>
-      </c>
-      <c r="B47" s="2">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>1898</v>
-      </c>
-      <c r="B48" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>1931</v>
-      </c>
-      <c r="B49" s="2">
-        <f t="shared" si="0"/>
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>1964</v>
-      </c>
-      <c r="B50" s="2">
-        <f t="shared" si="0"/>
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>1997</v>
-      </c>
-      <c r="B51" s="2">
-        <f t="shared" si="0"/>
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>2030</v>
-      </c>
-      <c r="B52" s="2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>2063</v>
-      </c>
-      <c r="B53" s="2">
-        <f t="shared" si="0"/>
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>2096</v>
-      </c>
-      <c r="B54" s="2">
-        <f t="shared" si="0"/>
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>2129</v>
-      </c>
-      <c r="B55" s="2">
-        <f t="shared" si="0"/>
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>2162</v>
-      </c>
-      <c r="B56" s="2">
-        <f t="shared" si="0"/>
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>2195</v>
-      </c>
-      <c r="B57" s="2">
-        <f t="shared" si="0"/>
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>2228</v>
-      </c>
-      <c r="B58" s="2">
-        <f t="shared" si="0"/>
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>2261</v>
-      </c>
-      <c r="B59" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>2294</v>
-      </c>
-      <c r="B60" s="2">
-        <f t="shared" si="0"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>2327</v>
-      </c>
-      <c r="B61" s="2">
-        <f t="shared" si="0"/>
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>2360</v>
-      </c>
-      <c r="B62" s="2">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>2393</v>
-      </c>
-      <c r="B63" s="2">
-        <f t="shared" si="0"/>
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>2426</v>
-      </c>
-      <c r="B64" s="2">
-        <f t="shared" si="0"/>
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>2459</v>
-      </c>
-      <c r="B65" s="2">
-        <f t="shared" si="0"/>
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>2492</v>
-      </c>
-      <c r="B66" s="2">
-        <f t="shared" ref="B66:B81" si="1">ROUNDDOWN(((A66-380)*0.1/3300),3)</f>
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>2525</v>
-      </c>
-      <c r="B67" s="2">
-        <f t="shared" si="1"/>
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>2558</v>
-      </c>
-      <c r="B68" s="2">
-        <f t="shared" si="1"/>
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>2591</v>
-      </c>
-      <c r="B69" s="2">
-        <f t="shared" si="1"/>
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>2624</v>
-      </c>
-      <c r="B70" s="2">
-        <f t="shared" si="1"/>
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>2657</v>
-      </c>
-      <c r="B71" s="2">
-        <f t="shared" si="1"/>
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>2690</v>
-      </c>
-      <c r="B72" s="2">
-        <f t="shared" si="1"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>2723</v>
-      </c>
-      <c r="B73" s="2">
-        <f t="shared" si="1"/>
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>2756</v>
-      </c>
-      <c r="B74" s="2">
-        <f t="shared" si="1"/>
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>2789</v>
-      </c>
-      <c r="B75" s="2">
-        <f t="shared" si="1"/>
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>2822</v>
-      </c>
-      <c r="B76" s="2">
-        <f t="shared" si="1"/>
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>2855</v>
-      </c>
-      <c r="B77" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>2888</v>
-      </c>
-      <c r="B78" s="2">
-        <f t="shared" si="1"/>
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>2921</v>
-      </c>
-      <c r="B79" s="2">
-        <f t="shared" si="1"/>
-        <v>7.6999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>2954</v>
-      </c>
-      <c r="B80" s="2">
-        <f t="shared" si="1"/>
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>2987</v>
-      </c>
-      <c r="B81" s="2">
-        <f t="shared" si="1"/>
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B144"/>
   <sheetViews>
@@ -13754,4 +13020,2483 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B81"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>380</v>
+      </c>
+      <c r="B2" s="2">
+        <f t="shared" ref="B2:B65" si="0">ROUNDDOWN(((A2-380)*0.1/3300),3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>413</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>446</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>479</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>512</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>545</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>578</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>611</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>644</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>677</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>710</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>743</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>776</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>809</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>842</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>875</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>908</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>941</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>974</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1040</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1073</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1106</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1139</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1172</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1205</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1238</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1271</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1304</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1337</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1370</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1403</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1436</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1469</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1502</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1535</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1568</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1601</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1634</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>1667</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1700</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>1733</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>1766</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>1799</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1832</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>1865</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>1898</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>1931</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>1964</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>1997</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>2063</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>2096</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>2129</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>2162</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>2195</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>2228</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="0"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>2261</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="0"/>
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>2294</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>2327</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>2360</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>2393</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>2426</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>2459</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>2492</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" ref="B66:B81" si="1">ROUNDDOWN(((A66-380)*0.1/3300),3)</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>2525</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>2558</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>2591</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="1"/>
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>2624</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>2657</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="1"/>
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>2690</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>2723</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="1"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>2756</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>2789</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" si="1"/>
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>2822</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="1"/>
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>2855</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>2888</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="1"/>
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>2921</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="1"/>
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>2954</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" si="1"/>
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>2987</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" si="1"/>
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B191"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>340</v>
+      </c>
+      <c r="B2" s="8">
+        <f t="shared" ref="B2:B65" si="0">ROUNDDOWN((($A2-340)*150/3300),0)+200</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>362</v>
+      </c>
+      <c r="B3" s="8">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>384</v>
+      </c>
+      <c r="B4" s="8">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>406</v>
+      </c>
+      <c r="B5" s="8">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>428</v>
+      </c>
+      <c r="B6" s="8">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>450</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>472</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>494</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>516</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>538</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>560</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>582</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>604</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>626</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>648</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>670</v>
+      </c>
+      <c r="B17" s="8">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>692</v>
+      </c>
+      <c r="B18" s="8">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>714</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>736</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>758</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="0"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>780</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>802</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>824</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>846</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>868</v>
+      </c>
+      <c r="B26" s="8">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>890</v>
+      </c>
+      <c r="B27" s="8">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>912</v>
+      </c>
+      <c r="B28" s="8">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>934</v>
+      </c>
+      <c r="B29" s="8">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>956</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>978</v>
+      </c>
+      <c r="B31" s="8">
+        <f t="shared" si="0"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B32" s="8">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>1022</v>
+      </c>
+      <c r="B33" s="8">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>1044</v>
+      </c>
+      <c r="B34" s="8">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>1066</v>
+      </c>
+      <c r="B35" s="8">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>1088</v>
+      </c>
+      <c r="B36" s="8">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>1110</v>
+      </c>
+      <c r="B37" s="8">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>1132</v>
+      </c>
+      <c r="B38" s="8">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>1154</v>
+      </c>
+      <c r="B39" s="8">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>1176</v>
+      </c>
+      <c r="B40" s="8">
+        <f t="shared" si="0"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>1198</v>
+      </c>
+      <c r="B41" s="8">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>1220</v>
+      </c>
+      <c r="B42" s="8">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>1242</v>
+      </c>
+      <c r="B43" s="8">
+        <f t="shared" si="0"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>1264</v>
+      </c>
+      <c r="B44" s="8">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>1286</v>
+      </c>
+      <c r="B45" s="8">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>1308</v>
+      </c>
+      <c r="B46" s="8">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>1330</v>
+      </c>
+      <c r="B47" s="8">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>1352</v>
+      </c>
+      <c r="B48" s="8">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>1374</v>
+      </c>
+      <c r="B49" s="8">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>1396</v>
+      </c>
+      <c r="B50" s="8">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>1418</v>
+      </c>
+      <c r="B51" s="8">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>1440</v>
+      </c>
+      <c r="B52" s="8">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>1462</v>
+      </c>
+      <c r="B53" s="8">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>1484</v>
+      </c>
+      <c r="B54" s="8">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>1506</v>
+      </c>
+      <c r="B55" s="8">
+        <f t="shared" si="0"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>1528</v>
+      </c>
+      <c r="B56" s="8">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>1550</v>
+      </c>
+      <c r="B57" s="8">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>1572</v>
+      </c>
+      <c r="B58" s="8">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>1594</v>
+      </c>
+      <c r="B59" s="8">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>1616</v>
+      </c>
+      <c r="B60" s="8">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>1638</v>
+      </c>
+      <c r="B61" s="8">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>1660</v>
+      </c>
+      <c r="B62" s="8">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>1682</v>
+      </c>
+      <c r="B63" s="8">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>1704</v>
+      </c>
+      <c r="B64" s="8">
+        <f t="shared" si="0"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>1726</v>
+      </c>
+      <c r="B65" s="8">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>1748</v>
+      </c>
+      <c r="B66" s="8">
+        <f t="shared" ref="B66:B129" si="1">ROUNDDOWN((($A66-340)*150/3300),0)+200</f>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>1770</v>
+      </c>
+      <c r="B67" s="8">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>1792</v>
+      </c>
+      <c r="B68" s="8">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>1814</v>
+      </c>
+      <c r="B69" s="8">
+        <f t="shared" si="1"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>1836</v>
+      </c>
+      <c r="B70" s="8">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>1858</v>
+      </c>
+      <c r="B71" s="8">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>1880</v>
+      </c>
+      <c r="B72" s="8">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>1902</v>
+      </c>
+      <c r="B73" s="8">
+        <f t="shared" si="1"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>1924</v>
+      </c>
+      <c r="B74" s="8">
+        <f t="shared" si="1"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>1946</v>
+      </c>
+      <c r="B75" s="8">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <v>1968</v>
+      </c>
+      <c r="B76" s="8">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>1990</v>
+      </c>
+      <c r="B77" s="8">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B78" s="8">
+        <f t="shared" si="1"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <v>2034</v>
+      </c>
+      <c r="B79" s="8">
+        <f t="shared" si="1"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
+        <v>2056</v>
+      </c>
+      <c r="B80" s="8">
+        <f t="shared" si="1"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
+        <v>2078</v>
+      </c>
+      <c r="B81" s="8">
+        <f t="shared" si="1"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
+        <v>2100</v>
+      </c>
+      <c r="B82" s="8">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <v>2122</v>
+      </c>
+      <c r="B83" s="8">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>2144</v>
+      </c>
+      <c r="B84" s="8">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <v>2166</v>
+      </c>
+      <c r="B85" s="8">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <v>2188</v>
+      </c>
+      <c r="B86" s="8">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
+        <v>2210</v>
+      </c>
+      <c r="B87" s="8">
+        <f t="shared" si="1"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
+        <v>2232</v>
+      </c>
+      <c r="B88" s="8">
+        <f t="shared" si="1"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
+        <v>2254</v>
+      </c>
+      <c r="B89" s="8">
+        <f t="shared" si="1"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
+        <v>2276</v>
+      </c>
+      <c r="B90" s="8">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <v>2298</v>
+      </c>
+      <c r="B91" s="8">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
+        <v>2320</v>
+      </c>
+      <c r="B92" s="8">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
+        <v>2342</v>
+      </c>
+      <c r="B93" s="8">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
+        <v>2364</v>
+      </c>
+      <c r="B94" s="8">
+        <f t="shared" si="1"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
+        <v>2386</v>
+      </c>
+      <c r="B95" s="8">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
+        <v>2408</v>
+      </c>
+      <c r="B96" s="8">
+        <f t="shared" si="1"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="8">
+        <v>2430</v>
+      </c>
+      <c r="B97" s="8">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
+        <v>2452</v>
+      </c>
+      <c r="B98" s="8">
+        <f t="shared" si="1"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="8">
+        <v>2474</v>
+      </c>
+      <c r="B99" s="8">
+        <f t="shared" si="1"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="8">
+        <v>2496</v>
+      </c>
+      <c r="B100" s="8">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="8">
+        <v>2518</v>
+      </c>
+      <c r="B101" s="8">
+        <f t="shared" si="1"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="8">
+        <v>2540</v>
+      </c>
+      <c r="B102" s="8">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="8">
+        <v>2562</v>
+      </c>
+      <c r="B103" s="8">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="8">
+        <v>2584</v>
+      </c>
+      <c r="B104" s="8">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="8">
+        <v>2606</v>
+      </c>
+      <c r="B105" s="8">
+        <f t="shared" si="1"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
+        <v>2628</v>
+      </c>
+      <c r="B106" s="8">
+        <f t="shared" si="1"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="8">
+        <v>2650</v>
+      </c>
+      <c r="B107" s="8">
+        <f t="shared" si="1"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="8">
+        <v>2672</v>
+      </c>
+      <c r="B108" s="8">
+        <f t="shared" si="1"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="8">
+        <v>2694</v>
+      </c>
+      <c r="B109" s="8">
+        <f t="shared" si="1"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="8">
+        <v>2716</v>
+      </c>
+      <c r="B110" s="8">
+        <f t="shared" si="1"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="8">
+        <v>2738</v>
+      </c>
+      <c r="B111" s="8">
+        <f t="shared" si="1"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="8">
+        <v>2760</v>
+      </c>
+      <c r="B112" s="8">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="8">
+        <v>2782</v>
+      </c>
+      <c r="B113" s="8">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="8">
+        <v>2804</v>
+      </c>
+      <c r="B114" s="8">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="8">
+        <v>2826</v>
+      </c>
+      <c r="B115" s="8">
+        <f t="shared" si="1"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="8">
+        <v>2848</v>
+      </c>
+      <c r="B116" s="8">
+        <f t="shared" si="1"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="8">
+        <v>2870</v>
+      </c>
+      <c r="B117" s="8">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="8">
+        <v>2892</v>
+      </c>
+      <c r="B118" s="8">
+        <f t="shared" si="1"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="8">
+        <v>2914</v>
+      </c>
+      <c r="B119" s="8">
+        <f t="shared" si="1"/>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="8">
+        <v>2936</v>
+      </c>
+      <c r="B120" s="8">
+        <f t="shared" si="1"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="8">
+        <v>2958</v>
+      </c>
+      <c r="B121" s="8">
+        <f t="shared" si="1"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="8">
+        <v>2980</v>
+      </c>
+      <c r="B122" s="8">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="8">
+        <v>3002</v>
+      </c>
+      <c r="B123" s="8">
+        <f t="shared" si="1"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="8">
+        <v>3024</v>
+      </c>
+      <c r="B124" s="8">
+        <f t="shared" si="1"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="8">
+        <v>3046</v>
+      </c>
+      <c r="B125" s="8">
+        <f t="shared" si="1"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="8">
+        <v>3068</v>
+      </c>
+      <c r="B126" s="8">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="8">
+        <v>3090</v>
+      </c>
+      <c r="B127" s="8">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="8">
+        <v>3112</v>
+      </c>
+      <c r="B128" s="8">
+        <f t="shared" si="1"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="8">
+        <v>3134</v>
+      </c>
+      <c r="B129" s="8">
+        <f t="shared" si="1"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="8">
+        <v>3156</v>
+      </c>
+      <c r="B130" s="8">
+        <f t="shared" ref="B130:B191" si="2">ROUNDDOWN((($A130-340)*150/3300),0)+200</f>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="8">
+        <v>3178</v>
+      </c>
+      <c r="B131" s="8">
+        <f t="shared" si="2"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="8">
+        <v>3200</v>
+      </c>
+      <c r="B132" s="8">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="8">
+        <v>3222</v>
+      </c>
+      <c r="B133" s="8">
+        <f t="shared" si="2"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="8">
+        <v>3244</v>
+      </c>
+      <c r="B134" s="8">
+        <f t="shared" si="2"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="8">
+        <v>3266</v>
+      </c>
+      <c r="B135" s="8">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="8">
+        <v>3288</v>
+      </c>
+      <c r="B136" s="8">
+        <f t="shared" si="2"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="8">
+        <v>3310</v>
+      </c>
+      <c r="B137" s="8">
+        <f t="shared" si="2"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="8">
+        <v>3332</v>
+      </c>
+      <c r="B138" s="8">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="8">
+        <v>3354</v>
+      </c>
+      <c r="B139" s="8">
+        <f t="shared" si="2"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="8">
+        <v>3376</v>
+      </c>
+      <c r="B140" s="8">
+        <f t="shared" si="2"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="8">
+        <v>3398</v>
+      </c>
+      <c r="B141" s="8">
+        <f t="shared" si="2"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="8">
+        <v>3420</v>
+      </c>
+      <c r="B142" s="8">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="8">
+        <v>3442</v>
+      </c>
+      <c r="B143" s="8">
+        <f t="shared" si="2"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="8">
+        <v>3464</v>
+      </c>
+      <c r="B144" s="8">
+        <f t="shared" si="2"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="8">
+        <v>3486</v>
+      </c>
+      <c r="B145" s="8">
+        <f t="shared" si="2"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="8">
+        <v>3508</v>
+      </c>
+      <c r="B146" s="8">
+        <f t="shared" si="2"/>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="8">
+        <v>3530</v>
+      </c>
+      <c r="B147" s="8">
+        <f t="shared" si="2"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="8">
+        <v>3552</v>
+      </c>
+      <c r="B148" s="8">
+        <f t="shared" si="2"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="8">
+        <v>3574</v>
+      </c>
+      <c r="B149" s="8">
+        <f t="shared" si="2"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="8">
+        <v>3596</v>
+      </c>
+      <c r="B150" s="8">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="8">
+        <v>3618</v>
+      </c>
+      <c r="B151" s="8">
+        <f t="shared" si="2"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="8">
+        <v>3640</v>
+      </c>
+      <c r="B152" s="8">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="8">
+        <v>3662</v>
+      </c>
+      <c r="B153" s="8">
+        <f t="shared" si="2"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="8">
+        <v>3684</v>
+      </c>
+      <c r="B154" s="8">
+        <f t="shared" si="2"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="8">
+        <v>3706</v>
+      </c>
+      <c r="B155" s="8">
+        <f t="shared" si="2"/>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="8">
+        <v>3728</v>
+      </c>
+      <c r="B156" s="8">
+        <f t="shared" si="2"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="8">
+        <v>3750</v>
+      </c>
+      <c r="B157" s="8">
+        <f t="shared" si="2"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="8">
+        <v>3772</v>
+      </c>
+      <c r="B158" s="8">
+        <f t="shared" si="2"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="8">
+        <v>3794</v>
+      </c>
+      <c r="B159" s="8">
+        <f t="shared" si="2"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="8">
+        <v>3816</v>
+      </c>
+      <c r="B160" s="8">
+        <f t="shared" si="2"/>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="8">
+        <v>3838</v>
+      </c>
+      <c r="B161" s="8">
+        <f t="shared" si="2"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="8">
+        <v>3860</v>
+      </c>
+      <c r="B162" s="8">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="8">
+        <v>3882</v>
+      </c>
+      <c r="B163" s="8">
+        <f t="shared" si="2"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="8">
+        <v>3904</v>
+      </c>
+      <c r="B164" s="8">
+        <f t="shared" si="2"/>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="8">
+        <v>3926</v>
+      </c>
+      <c r="B165" s="8">
+        <f t="shared" si="2"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="8">
+        <v>3948</v>
+      </c>
+      <c r="B166" s="8">
+        <f t="shared" si="2"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="8">
+        <v>3970</v>
+      </c>
+      <c r="B167" s="8">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="8">
+        <v>3992</v>
+      </c>
+      <c r="B168" s="8">
+        <f t="shared" si="2"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="8">
+        <v>4014</v>
+      </c>
+      <c r="B169" s="8">
+        <f t="shared" si="2"/>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="8">
+        <v>4036</v>
+      </c>
+      <c r="B170" s="8">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="8">
+        <v>4058</v>
+      </c>
+      <c r="B171" s="8">
+        <f t="shared" si="2"/>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="8">
+        <v>4080</v>
+      </c>
+      <c r="B172" s="8">
+        <f t="shared" si="2"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="8">
+        <v>4102</v>
+      </c>
+      <c r="B173" s="8">
+        <f t="shared" si="2"/>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="8">
+        <v>4124</v>
+      </c>
+      <c r="B174" s="8">
+        <f t="shared" si="2"/>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="8">
+        <v>4146</v>
+      </c>
+      <c r="B175" s="8">
+        <f t="shared" si="2"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="8">
+        <v>4168</v>
+      </c>
+      <c r="B176" s="8">
+        <f t="shared" si="2"/>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="8">
+        <v>4190</v>
+      </c>
+      <c r="B177" s="8">
+        <f t="shared" si="2"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="8">
+        <v>4212</v>
+      </c>
+      <c r="B178" s="8">
+        <f t="shared" si="2"/>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="8">
+        <v>4234</v>
+      </c>
+      <c r="B179" s="8">
+        <f t="shared" si="2"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="8">
+        <v>4256</v>
+      </c>
+      <c r="B180" s="8">
+        <f t="shared" si="2"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="8">
+        <v>4278</v>
+      </c>
+      <c r="B181" s="8">
+        <f t="shared" si="2"/>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="8">
+        <v>4300</v>
+      </c>
+      <c r="B182" s="8">
+        <f t="shared" si="2"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="8">
+        <v>4322</v>
+      </c>
+      <c r="B183" s="8">
+        <f t="shared" si="2"/>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="8">
+        <v>4344</v>
+      </c>
+      <c r="B184" s="8">
+        <f t="shared" si="2"/>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="8">
+        <v>4366</v>
+      </c>
+      <c r="B185" s="8">
+        <f t="shared" si="2"/>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="8">
+        <v>4388</v>
+      </c>
+      <c r="B186" s="8">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="8">
+        <v>4410</v>
+      </c>
+      <c r="B187" s="8">
+        <f t="shared" si="2"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="8">
+        <v>4432</v>
+      </c>
+      <c r="B188" s="8">
+        <f t="shared" si="2"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="8">
+        <v>4454</v>
+      </c>
+      <c r="B189" s="8">
+        <f t="shared" si="2"/>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="8">
+        <v>4476</v>
+      </c>
+      <c r="B190" s="8">
+        <f t="shared" si="2"/>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="8">
+        <v>4498</v>
+      </c>
+      <c r="B191" s="8">
+        <f t="shared" si="2"/>
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>